--- a/PMP/Test25020230.xlsx
+++ b/PMP/Test25020230.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A27A504-00F5-4984-9434-9463FCB8DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525FBDB-1B5F-4222-A367-28F7DDBB7070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13358B08-4D88-4DEA-B285-94C24C6C47EE}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{13358B08-4D88-4DEA-B285-94C24C6C47EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Dist" sheetId="1" r:id="rId1"/>
+    <sheet name="LPIII_DNMR" sheetId="3" r:id="rId2"/>
+    <sheet name="LPIII_LY" sheetId="4" r:id="rId3"/>
+    <sheet name="LPIII_NMDR" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Weibull</t>
   </si>
@@ -68,12 +71,36 @@
   <si>
     <t>mu</t>
   </si>
+  <si>
+    <t>OID</t>
+  </si>
+  <si>
+    <t>DNMR R</t>
+  </si>
+  <si>
+    <t>DNMR Python</t>
+  </si>
+  <si>
+    <t>Log Pearson III</t>
+  </si>
+  <si>
+    <t>LY R</t>
+  </si>
+  <si>
+    <t>LY Python</t>
+  </si>
+  <si>
+    <t>NMDR R</t>
+  </si>
+  <si>
+    <t>NMDR Python</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +114,31 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,9 +153,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,6 +185,4200 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LPIII_DNMR!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DNMR R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LPIII_DNMR!$B$3:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LPIII_DNMR!$C$3:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>14.251910000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.36879999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3532.6570000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60945.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1112364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21415130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>433697100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9216891000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205093400000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4768813000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115652800000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2920454000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.666749E+16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.089335E+18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.902771E+19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7266730000000001E+21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2235149999999998E+22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6324480000000001E+24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2649569999999997E+25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7506990000000001E+27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.996476E+28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1138720000000001E+30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6631899999999997E+31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8546840000000002E+33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.091971E+35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2861959999999999E+36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7252749999999998E+38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1170900000000003E+39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.007106E+41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3006309999999999E+43</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.7555400000000003E+44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6044910000000002E+46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.204627E+48</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6920919999999999E+49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.746543E+51</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3527249999999999E+53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.7977000000000002E+54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.483951E+56</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.820431E+58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59DF-4826-8073-72425B23CDA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LPIII_DNMR!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DNMR Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LPIII_DNMR!$B$3:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LPIII_DNMR!$D$3:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>13.183479999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.98750000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2839.1210000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45946.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>789526.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14356340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275404500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5558620000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117750900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2612124000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60558120000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1464506000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.688135E+16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.65682E+17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.625059E+19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3983299999999997E+20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1590900000000001E+22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5168839999999994E+23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0321910000000001E+25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5402979999999997E+26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1702980000000002E+28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4188339999999999E+29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6102039999999999E+31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4446239999999996E+32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5118400000000001E+34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.340942E+36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2542789999999996E+37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1113519999999999E+39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6952810000000002E+40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6679720000000001E+42</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.583958E+44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.9984760000000002E+45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1621549999999999E+47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.460393E+49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8906420000000002E+50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.320151E+52</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.632966E+54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.19479E+55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1943780000000002E+57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59DF-4826-8073-72425B23CDA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="153442944"/>
+        <c:axId val="1358150016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="153442944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358150016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1358150016"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153442944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LPIII_LY!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LY R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LPIII_LY!$B$3:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LPIII_LY!$C$3:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>23.730167999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.105560000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.737497000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.815691000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.353155000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.488900999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.21698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.320671999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.320671999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.186997000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.078968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.727247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.727247</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.277120999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.16775</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.16775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.16775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.059589000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.638512</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.536014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.136426999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.383092</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.292873999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.203481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.203481</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.351768</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.343614000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.189970000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.235167000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.198846</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.126605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.298914</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.167522</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.167522</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.167522</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.167522</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.8465579999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5357850000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.9834759999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A598-4818-AD0C-6A7D54754E50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LPIII_LY!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LY Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LPIII_LY!$B$3:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LPIII_LY!$D$3:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>22.418704999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.810112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.477128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.630240000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.179563999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.33747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.072521999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.199197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.199197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.068949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.96369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.620987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.620987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.182402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.075837</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.075837</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.075837</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.970447999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.560169</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.460298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.070957</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.336938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.249034</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.161932999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.161932999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.332058999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.324114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.17441</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.244089000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.208698999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.138311</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.331842</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.2038189999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.2038189999999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.2038189999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.2038189999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.8910850000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.5882810000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.1270569999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A598-4818-AD0C-6A7D54754E50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="153442944"/>
+        <c:axId val="1358150016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="153442944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358150016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1358150016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153442944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LPIII_NMDR!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NMDR R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LPIII_NMDR!$B$3:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LPIII_NMDR!$C$3:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>118323400000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>707985000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4236211000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25347270000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151664800000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>907482700000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5429902000000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.248969E+16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.944013E+17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.163195E+18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.959953E+18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.164471E+19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.491802E+20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4909639999999999E+21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9211449999999998E+21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3379460000000002E+22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1939479999999997E+23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9110910000000001E+24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.143497E+25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8420859999999999E+25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.093946E+26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4496029999999999E+27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4657140000000001E+28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.7700659999999999E+28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.2475479999999997E+29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1398580000000002E+30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.878727E+31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1241319999999999E+32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7262150000000003E+32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0246149999999997E+33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.408119E+34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4408919999999999E+35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.6215449999999993E+35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1586810000000002E+36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.086685E+37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8469110000000001E+38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.105095E+39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.6123070000000003E+39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.956458E+40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7709-4336-BAED-E125AD96B91A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LPIII_NMDR!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NMDR Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LPIII_NMDR!$B$3:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LPIII_NMDR!$D$3:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>2283127000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11705720000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60015910000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>307705000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1577621000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8088552000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41470470000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212621400000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1090122000000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5589119000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.865573E+16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.469196E+17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.532649E+17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.862032E+18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.980086E+19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.015201E+20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2049950000000002E+20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6686300000000001E+21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.368222E+22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0149519999999997E+22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5966059999999998E+23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8440000000000001E+24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.4542949999999995E+24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8472709999999996E+25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4852230000000002E+26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2741880000000001E+27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5328350000000004E+27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.349422E+28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.717267E+29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.8045279999999995E+29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5141319999999998E+30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3144210000000001E+31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.186617E+32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.0838520000000001E+32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.119226E+33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.599245E+34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1994180000000002E+34</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2038880000000001E+35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.155358E+36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7709-4336-BAED-E125AD96B91A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="153442944"/>
+        <c:axId val="1358150016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="153442944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358150016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1358150016"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153442944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>585786</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECF48BD-6FA8-873E-0678-D7E4B686E278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>204786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BADFEC-5A8E-49F8-B3D1-0A8497E1281F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>204786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E43DA68-4023-42F4-8A97-E7C596E6F7E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,7 +4680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CC1842-FAEA-46CB-86FF-2F8D0F179680}">
   <dimension ref="B1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1562,63 +5815,2198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D47F36-A045-4AC8-9E51-9D3BA311A18F}">
-  <dimension ref="A2:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D096EDA4-1D33-4C95-A6B7-B9E0E84F3888}">
+  <dimension ref="B1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14.251910000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>13.183479999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>217.36879999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>186.98750000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3532.6570000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2839.1210000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>60945.07</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45946.85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1112364</v>
+      </c>
+      <c r="D7" s="4">
+        <v>789526.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>21415130</v>
+      </c>
+      <c r="D8" s="4">
+        <v>14356340</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>433697100</v>
+      </c>
+      <c r="D9" s="4">
+        <v>275404500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9216891000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5558620000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>205093400000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>117750900000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4768813000000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2612124000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>115652800000000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>60558120000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2920454000000000</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1464506000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.666749E+16</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.688135E+16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.089335E+18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9.65682E+17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.902771E+19</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.625059E+19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.7266730000000001E+21</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7.3983299999999997E+20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5.2235149999999998E+22</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.1590900000000001E+22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.6324480000000001E+24</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6.5168839999999994E+23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5.2649569999999997E+25</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.0321910000000001E+25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.7506990000000001E+27</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6.5402979999999997E+26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5.996476E+28</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.1702980000000002E+28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.1138720000000001E+30</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7.4188339999999999E+29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.6631899999999997E+31</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2.6102039999999999E+31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.8546840000000002E+33</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9.4446239999999996E+32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.091971E+35</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3.5118400000000001E+34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4.2861959999999999E+36</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.340942E+36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.7252749999999998E+38</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5.2542789999999996E+37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <v>7.1170900000000003E+39</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2.1113519999999999E+39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3.007106E+41</v>
+      </c>
+      <c r="D31" s="4">
+        <v>8.6952810000000002E+40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.3006309999999999E+43</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3.6679720000000001E+42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.7555400000000003E+44</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.583958E+44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2.6044910000000002E+46</v>
+      </c>
+      <c r="D34" s="4">
+        <v>6.9984760000000002E+45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.204627E+48</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3.1621549999999999E+47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5.6920919999999999E+49</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.460393E+49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2.746543E+51</v>
+      </c>
+      <c r="D37" s="4">
+        <v>6.8906420000000002E+50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1.3527249999999999E+53</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.320151E+52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4">
+        <v>6.7977000000000002E+54</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.632966E+54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3.483951E+56</v>
+      </c>
+      <c r="D40" s="4">
+        <v>8.19479E+55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.820431E+58</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4.1943780000000002E+57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AAA0BD-616A-4861-A387-408AFB687569}">
+  <dimension ref="B1:D41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23.730167999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22.418704999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>23.105560000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21.810112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21.737497000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20.477128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>18.815691000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>17.630240000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>18.353155000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>17.179563999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>17.488900999999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16.33747</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>17.21698</v>
+      </c>
+      <c r="D9" s="4">
+        <v>16.072521999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16.320671999999998</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15.199197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>16.320671999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>15.199197</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>16.186997000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15.068949</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16.078968</v>
+      </c>
+      <c r="D13" s="4">
+        <v>14.96369</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>15.727247</v>
+      </c>
+      <c r="D14" s="4">
+        <v>14.620987</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>15.727247</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14.620987</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>15.277120999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>14.182402</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>15.16775</v>
+      </c>
+      <c r="D17" s="4">
+        <v>14.075837</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>15.16775</v>
+      </c>
+      <c r="D18" s="4">
+        <v>14.075837</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15.16775</v>
+      </c>
+      <c r="D19" s="4">
+        <v>14.075837</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <v>15.059589000000001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>13.970447999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <v>14.638512</v>
+      </c>
+      <c r="D21" s="4">
+        <v>13.560169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14.536014</v>
+      </c>
+      <c r="D22" s="4">
+        <v>13.460298</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>14.136426999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>13.070957</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
+        <v>13.383092</v>
+      </c>
+      <c r="D24" s="4">
+        <v>12.336938</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>13.292873999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <v>12.249034</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>13.203481</v>
+      </c>
+      <c r="D26" s="4">
+        <v>12.161932999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>13.203481</v>
+      </c>
+      <c r="D27" s="4">
+        <v>12.161932999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <v>12.351768</v>
+      </c>
+      <c r="D28" s="4">
+        <v>11.332058999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>12.343614000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>11.324114</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <v>12.189970000000001</v>
+      </c>
+      <c r="D30" s="4">
+        <v>11.17441</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
+        <v>11.235167000000001</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10.244089000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <v>11.198846</v>
+      </c>
+      <c r="D32" s="4">
+        <v>10.208698999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4">
+        <v>11.126605</v>
+      </c>
+      <c r="D33" s="4">
+        <v>10.138311</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <v>10.298914</v>
+      </c>
+      <c r="D34" s="4">
+        <v>9.331842</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10.167522</v>
+      </c>
+      <c r="D35" s="4">
+        <v>9.2038189999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10.167522</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9.2038189999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10.167522</v>
+      </c>
+      <c r="D37" s="4">
+        <v>9.2038189999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>10.167522</v>
+      </c>
+      <c r="D38" s="4">
+        <v>9.2038189999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4">
+        <v>9.8465579999999999</v>
+      </c>
+      <c r="D39" s="4">
+        <v>8.8910850000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9.5357850000000006</v>
+      </c>
+      <c r="D40" s="4">
+        <v>8.5882810000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4">
+        <v>5.9834759999999996</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5.1270569999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26E4D31-0403-4222-8AB9-88AD3DB4DC08}">
+  <dimension ref="B1:D41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>118323400000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2283127000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>707985000000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11705720000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4236211000000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>60015910000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25347270000000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>307705000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>151664800000000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1577621000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>907482700000000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8088552000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5429902000000000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>41470470000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3.248969E+16</v>
+      </c>
+      <c r="D10" s="4">
+        <v>212621400000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.944013E+17</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1090122000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.163195E+18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5589119000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.959953E+18</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.865573E+16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.164471E+19</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.469196E+17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.491802E+20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7.532649E+17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.4909639999999999E+21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.862032E+18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8.9211449999999998E+21</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.980086E+19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5.3379460000000002E+22</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.015201E+20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.1939479999999997E+23</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.2049950000000002E+20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.9110910000000001E+24</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.6686300000000001E+21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.143497E+25</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.368222E+22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6.8420859999999999E+25</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7.0149519999999997E+22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.093946E+26</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.5966059999999998E+23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.4496029999999999E+27</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.8440000000000001E+24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.4657140000000001E+28</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.4542949999999995E+24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8.7700659999999999E+28</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4.8472709999999996E+25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5.2475479999999997E+29</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.4852230000000002E+26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.1398580000000002E+30</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.2741880000000001E+27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.878727E+31</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6.5328350000000004E+27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1.1241319999999999E+32</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3.349422E+28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
+        <v>6.7262150000000003E+32</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.717267E+29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4.0246149999999997E+33</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8.8045279999999995E+29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.408119E+34</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4.5141319999999998E+30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.4408919999999999E+35</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2.3144210000000001E+31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
+        <v>8.6215449999999993E+35</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.186617E+32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5.1586810000000002E+36</v>
+      </c>
+      <c r="D36" s="4">
+        <v>6.0838520000000001E+32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3.086685E+37</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3.119226E+33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1.8469110000000001E+38</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1.599245E+34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.105095E+39</v>
+      </c>
+      <c r="D39" s="4">
+        <v>8.1994180000000002E+34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4">
+        <v>6.6123070000000003E+39</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4.2038880000000001E+35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.956458E+40</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2.155358E+36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212688F1-9B53-47E6-BFE8-9070F309172E}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>13.183479999999999</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="D1">
+        <v>22.418704999999999</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2283127000</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>186.98750000000001</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="D2">
+        <v>21.810112</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11705720000</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2839.1210000000001</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="D3">
+        <v>20.477128</v>
+      </c>
+      <c r="E3" s="2">
+        <v>60015910000</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45946.85</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="D4">
+        <v>17.630240000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>307705000000</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>789526.6</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="D5">
+        <v>17.179563999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1577621000000</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14356340</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="D6">
+        <v>16.33747</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8088552000000</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>275404500</v>
+      </c>
+      <c r="C7">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="D7">
+        <v>16.072521999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>41470470000000</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5558620000</v>
+      </c>
+      <c r="C8">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <f>_xlfn.STDEV.P(B2:B9)</f>
-        <v>2.2912878474779199</v>
-      </c>
+      <c r="D8">
+        <v>15.199197</v>
+      </c>
+      <c r="E8" s="2">
+        <v>212621400000000</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>117750900000</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>15.199197</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1090122000000000</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2612124000000</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>15.068949</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5589119000000000</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>60558120000000</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>14.96369</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.865573E+16</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1464506000000000</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>14.620987</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.469196E+17</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.688135E+16</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>14.620987</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.532649E+17</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9.65682E+17</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>14.182402</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.862032E+18</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.625059E+19</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>14.075837</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.980086E+19</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.3983299999999997E+20</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>14.075837</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.015201E+20</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.1590900000000001E+22</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>14.075837</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5.2049950000000002E+20</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6.5168839999999994E+23</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>13.970447999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.6686300000000001E+21</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.0321910000000001E+25</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>13.560169</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.368222E+22</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6.5402979999999997E+26</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>13.460298</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.0149519999999997E+22</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.1702980000000002E+28</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>13.070957</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.5966059999999998E+23</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7.4188339999999999E+29</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>12.336938</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.8440000000000001E+24</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.6102039999999999E+31</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>12.249034</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9.4542949999999995E+24</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>9.4446239999999996E+32</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>12.161932999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.8472709999999996E+25</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3.5118400000000001E+34</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>12.161932999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.4852230000000002E+26</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.340942E+36</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>11.332058999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.2741880000000001E+27</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5.2542789999999996E+37</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>11.324114</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6.5328350000000004E+27</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.1113519999999999E+39</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>11.17441</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.349422E+28</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>8.6952810000000002E+40</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>10.244089000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.717267E+29</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3.6679720000000001E+42</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>10.208698999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8.8045279999999995E+29</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.583958E+44</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>10.138311</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.5141319999999998E+30</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6.9984760000000002E+45</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>9.331842</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.3144210000000001E+31</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3.1621549999999999E+47</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>9.2038189999999993</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.186617E+32</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.460393E+49</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>9.2038189999999993</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6.0838520000000001E+32</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.8906420000000002E+50</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>9.2038189999999993</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3.119226E+33</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3.320151E+52</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>9.2038189999999993</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.599245E+34</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.632966E+54</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>8.8910850000000003</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8.1994180000000002E+34</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>8.19479E+55</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>8.5882810000000003</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4.2038880000000001E+35</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4.1943780000000002E+57</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>5.1270569999999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.155358E+36</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="M39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
